--- a/app/artemtvi.xlsx
+++ b/app/artemtvi.xlsx
@@ -122,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -165,19 +165,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,243 +799,211 @@
       <c r="A4" s="8" t="inlineStr"/>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>25.08.2020</t>
+          <t>24.08.2020</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t>Обед</t>
+          <t>Завтрак</t>
         </is>
       </c>
       <c r="E4" s="10" t="inlineStr">
         <is>
-          <t>1. Вина десертные
-2. Вина полудесертные</t>
-        </is>
-      </c>
-      <c r="F4" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100	
-70	</t>
-        </is>
+          <t>1. Вина десертные</t>
+        </is>
+      </c>
+      <c r="F4" s="11" t="n">
+        <v>50</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,5	
-0,4	</t>
+          <t xml:space="preserve">0,5	</t>
         </is>
       </c>
       <c r="H4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">20,0	
-12,0	</t>
+          <t xml:space="preserve">20,0	</t>
         </is>
       </c>
       <c r="I4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-0,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="J4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">172,0	
-140,0	</t>
+          <t xml:space="preserve">172,0	</t>
         </is>
       </c>
       <c r="K4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">	
-	</t>
+          <t xml:space="preserve">	</t>
         </is>
       </c>
       <c r="L4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">64,1	
-72,2	</t>
+          <t xml:space="preserve">64,1	</t>
         </is>
       </c>
       <c r="M4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">20,0	
-12,0	</t>
+          <t xml:space="preserve">20,0	</t>
         </is>
       </c>
       <c r="N4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-0,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="O4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,6	
-1,6	</t>
+          <t xml:space="preserve">1,6	</t>
         </is>
       </c>
       <c r="P4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,6	
-0,6	</t>
+          <t xml:space="preserve">0,6	</t>
         </is>
       </c>
       <c r="Q4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,3	
-0,3	</t>
+          <t xml:space="preserve">0,3	</t>
         </is>
       </c>
       <c r="R4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">17,0	
-17,0	</t>
+          <t xml:space="preserve">17,0	</t>
         </is>
       </c>
       <c r="S4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">160,0	
-160,0	</t>
+          <t xml:space="preserve">160,0	</t>
         </is>
       </c>
       <c r="T4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">20,0	
-20,0	</t>
+          <t xml:space="preserve">20,0	</t>
         </is>
       </c>
       <c r="U4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">25,0	
-25,0	</t>
+          <t xml:space="preserve">25,0	</t>
         </is>
       </c>
       <c r="V4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">35,0	
-35,0	</t>
+          <t xml:space="preserve">35,0	</t>
         </is>
       </c>
       <c r="W4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,1	
-1,1	</t>
+          <t xml:space="preserve">1,1	</t>
         </is>
       </c>
       <c r="X4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-0,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="Y4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-0,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="Z4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-0,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="AA4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-0,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="AB4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,01	
-0,01	</t>
+          <t xml:space="preserve">0,01	</t>
         </is>
       </c>
       <c r="AC4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,1	
-0,1	</t>
+          <t xml:space="preserve">0,1	</t>
         </is>
       </c>
       <c r="AD4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-0,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="AE4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-0,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="AF4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-0,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="AG4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,2	
-0,1	</t>
+          <t xml:space="preserve">0,2	</t>
         </is>
       </c>
       <c r="AH4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-0,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="inlineStr"/>
-      <c r="B5" s="9" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>25.08.2020</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="D5" s="9" t="inlineStr">
-        <is>
-          <t>Ужин</t>
-        </is>
-      </c>
-      <c r="E5" s="10" t="inlineStr">
-        <is>
-          <t>1. Вина полусладкие белые и красные (в т.ч. шампанское)</t>
-        </is>
-      </c>
-      <c r="F5" s="11" t="n">
-        <v>76</v>
-      </c>
-      <c r="G5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,2	</t>
-        </is>
-      </c>
-      <c r="H5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5,0	</t>
-        </is>
-      </c>
-      <c r="I5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="J5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">88,0	</t>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>13:56</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr">
+        <is>
+          <t>Обед</t>
+        </is>
+      </c>
+      <c r="E5" s="13" t="inlineStr">
+        <is>
+          <t>1. Вина полудесертные</t>
+        </is>
+      </c>
+      <c r="F5" s="14" t="n">
+        <v>70</v>
+      </c>
+      <c r="G5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,4	</t>
+        </is>
+      </c>
+      <c r="H5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12,0	</t>
+        </is>
+      </c>
+      <c r="I5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="J5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">140,0	</t>
         </is>
       </c>
       <c r="K5" s="5" t="inlineStr">
@@ -1049,117 +1011,117 @@
           <t xml:space="preserve">	</t>
         </is>
       </c>
-      <c r="L5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">82,7	</t>
-        </is>
-      </c>
-      <c r="M5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5,0	</t>
-        </is>
-      </c>
-      <c r="N5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="O5" s="11" t="inlineStr">
+      <c r="L5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">72,2	</t>
+        </is>
+      </c>
+      <c r="M5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12,0	</t>
+        </is>
+      </c>
+      <c r="N5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="O5" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">1,6	</t>
         </is>
       </c>
-      <c r="P5" s="11" t="inlineStr">
+      <c r="P5" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">0,6	</t>
         </is>
       </c>
-      <c r="Q5" s="11" t="inlineStr">
+      <c r="Q5" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">0,3	</t>
         </is>
       </c>
-      <c r="R5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10,0	</t>
-        </is>
-      </c>
-      <c r="S5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">50,0	</t>
-        </is>
-      </c>
-      <c r="T5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">15,0	</t>
-        </is>
-      </c>
-      <c r="U5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10,0	</t>
-        </is>
-      </c>
-      <c r="V5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10,0	</t>
-        </is>
-      </c>
-      <c r="W5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,4	</t>
-        </is>
-      </c>
-      <c r="X5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="Y5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="Z5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AA5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AB5" s="11" t="inlineStr">
+      <c r="R5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17,0	</t>
+        </is>
+      </c>
+      <c r="S5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">160,0	</t>
+        </is>
+      </c>
+      <c r="T5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20,0	</t>
+        </is>
+      </c>
+      <c r="U5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25,0	</t>
+        </is>
+      </c>
+      <c r="V5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">35,0	</t>
+        </is>
+      </c>
+      <c r="W5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,1	</t>
+        </is>
+      </c>
+      <c r="X5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="Y5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="Z5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AA5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AB5" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">0,01	</t>
         </is>
       </c>
-      <c r="AC5" s="11" t="inlineStr">
+      <c r="AC5" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">0,1	</t>
         </is>
       </c>
-      <c r="AD5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AE5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AF5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AG5" s="11" t="inlineStr">
+      <c r="AD5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AE5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AF5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AG5" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">0,1	</t>
         </is>
       </c>
-      <c r="AH5" s="11" t="inlineStr">
+      <c r="AH5" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">0,0	</t>
         </is>
@@ -1169,226 +1131,165 @@
       <c r="A6" s="8" t="inlineStr"/>
       <c r="B6" s="12" t="inlineStr">
         <is>
-          <t>26.08.2020</t>
+          <t>25.08.2020</t>
         </is>
       </c>
       <c r="C6" s="12" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D6" s="12" t="inlineStr">
         <is>
-          <t>Перекус</t>
+          <t>Ужин</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
         <is>
-          <t>1. Баклажаны, фаршированные овощами
-2. Вина десертные
-3. Брюква припущенная</t>
-        </is>
-      </c>
-      <c r="F6" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">13	
-20	
-120	</t>
-        </is>
+          <t>1. Вина полусладкие белые и красные (в т.ч. шампанское)</t>
+        </is>
+      </c>
+      <c r="F6" s="14" t="n">
+        <v>76</v>
       </c>
       <c r="G6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">2,9	
-0,5	
-1,5	</t>
+          <t xml:space="preserve">0,2	</t>
         </is>
       </c>
       <c r="H6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">7,4	
-20,0	
-10,1	</t>
+          <t xml:space="preserve">5,0	</t>
         </is>
       </c>
       <c r="I6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">4,5	
-0,0	
-2,8	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="J6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">83,0	
-172,0	
-70,0	</t>
+          <t xml:space="preserve">88,0	</t>
         </is>
       </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">	
-	</t>
+          <t xml:space="preserve">	</t>
         </is>
       </c>
       <c r="L6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">80,2	
-64,1	
-81,0	</t>
+          <t xml:space="preserve">82,7	</t>
         </is>
       </c>
       <c r="M6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">6,6	
-20,0	
-8,6	</t>
+          <t xml:space="preserve">5,0	</t>
         </is>
       </c>
       <c r="N6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,8	
-0,0	
-1,5	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="O6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">2,9	
-1,6	
-1,6	</t>
+          <t xml:space="preserve">1,6	</t>
         </is>
       </c>
       <c r="P6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,3	
-0,6	
-0,21	</t>
+          <t xml:space="preserve">0,6	</t>
         </is>
       </c>
       <c r="Q6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,8	
-0,3	
-1,8	</t>
+          <t xml:space="preserve">0,3	</t>
         </is>
       </c>
       <c r="R6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">382,0	
-17,0	
-379,0	</t>
+          <t xml:space="preserve">10,0	</t>
         </is>
       </c>
       <c r="S6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">324,0	
-160,0	
-238,0	</t>
+          <t xml:space="preserve">50,0	</t>
         </is>
       </c>
       <c r="T6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">38,0	
-20,0	
-45,0	</t>
+          <t xml:space="preserve">15,0	</t>
         </is>
       </c>
       <c r="U6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">22,0	
-25,0	
-14,0	</t>
+          <t xml:space="preserve">10,0	</t>
         </is>
       </c>
       <c r="V6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">52,0	
-35,0	
-42,0	</t>
+          <t xml:space="preserve">10,0	</t>
         </is>
       </c>
       <c r="W6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,7	
-1,1	
-1,5	</t>
+          <t xml:space="preserve">0,4	</t>
         </is>
       </c>
       <c r="X6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-0,0	
-0,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="Y6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">2680,0	
-0,0	
-50,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="Z6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">445,0	
-0,0	
-8,33	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="AA6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,05	
-0,0	
-0,05	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="AB6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,06	
-0,01	
-0,05	</t>
+          <t xml:space="preserve">0,01	</t>
         </is>
       </c>
       <c r="AC6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,8	
-0,1	
-1,03	</t>
+          <t xml:space="preserve">0,1	</t>
         </is>
       </c>
       <c r="AD6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">5,5	
-0,0	
-18,6	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="AE6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-0,0	
-0,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="AF6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,5	
-0,0	
-0,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="AG6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,2	
-0,2	
-0,0	</t>
+          <t xml:space="preserve">0,1	</t>
         </is>
       </c>
       <c r="AH6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">2,3	
-0,0	
-0,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
     </row>
@@ -2295,192 +2196,160 @@
       </c>
       <c r="C12" s="9" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>20:46</t>
         </is>
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Обед</t>
+          <t>Ужин</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>1. Каша гречневая
-2. Галушки</t>
-        </is>
-      </c>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">190	
-100	</t>
-        </is>
+          <t>1. Вина десертные</t>
+        </is>
+      </c>
+      <c r="F12" s="11" t="n">
+        <v>110</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">5,7	
-3,9	</t>
+          <t xml:space="preserve">0,5	</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">27,9	
-20,3	</t>
+          <t xml:space="preserve">20,0	</t>
         </is>
       </c>
       <c r="I12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">4,6	
-1,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="J12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">178,0	
-106,0	</t>
+          <t xml:space="preserve">172,0	</t>
         </is>
       </c>
       <c r="K12" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">	
-	</t>
+          <t xml:space="preserve">	</t>
         </is>
       </c>
       <c r="L12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">56,6	
-71,8	</t>
+          <t xml:space="preserve">64,1	</t>
         </is>
       </c>
       <c r="M12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,7	
-0,6	</t>
+          <t xml:space="preserve">20,0	</t>
         </is>
       </c>
       <c r="N12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">27,2	
-19,7	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="O12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,5	
-1,5	</t>
+          <t xml:space="preserve">1,6	</t>
         </is>
       </c>
       <c r="P12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-0,0	</t>
+          <t xml:space="preserve">0,6	</t>
         </is>
       </c>
       <c r="Q12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,7	
-1,5	</t>
+          <t xml:space="preserve">0,3	</t>
         </is>
       </c>
       <c r="R12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">373,0	
-427,0	</t>
+          <t xml:space="preserve">17,0	</t>
         </is>
       </c>
       <c r="S12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">171,0	
-64,0	</t>
+          <t xml:space="preserve">160,0	</t>
         </is>
       </c>
       <c r="T12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">16,0	
-15,0	</t>
+          <t xml:space="preserve">20,0	</t>
         </is>
       </c>
       <c r="U12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">90,0	
-15,0	</t>
+          <t xml:space="preserve">25,0	</t>
         </is>
       </c>
       <c r="V12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">134,0	
-71,0	</t>
+          <t xml:space="preserve">35,0	</t>
         </is>
       </c>
       <c r="W12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">3,0	
-0,8	</t>
+          <t xml:space="preserve">1,1	</t>
         </is>
       </c>
       <c r="X12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-20,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="Y12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-10,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="Z12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-22,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="AA12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,14	
-0,08	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="AB12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,07	
-0,04	</t>
+          <t xml:space="preserve">0,01	</t>
         </is>
       </c>
       <c r="AC12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,63	
-0,7	</t>
+          <t xml:space="preserve">0,1	</t>
         </is>
       </c>
       <c r="AD12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-0,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="AE12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-25,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="AF12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-0,2	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="AG12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-1,4	</t>
+          <t xml:space="preserve">0,2	</t>
         </is>
       </c>
       <c r="AH12" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-0,6	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
     </row>
@@ -2648,26 +2517,26 @@
         </is>
       </c>
       <c r="F16" s="16" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G16" s="16" t="n">
-        <v>0.3666666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="H16" s="16" t="n">
-        <v>12.33333333333333</v>
+        <v>8.5</v>
       </c>
       <c r="I16" s="16" t="n">
         <v>0</v>
       </c>
       <c r="J16" s="16" t="n">
-        <v>133.3333333333333</v>
+        <v>114</v>
       </c>
       <c r="K16" s="16" t="n"/>
       <c r="L16" s="16" t="n">
-        <v>73</v>
+        <v>77.45</v>
       </c>
       <c r="M16" s="16" t="n">
-        <v>12.33333333333333</v>
+        <v>8.5</v>
       </c>
       <c r="N16" s="16" t="n">
         <v>0</v>
@@ -2682,22 +2551,22 @@
         <v>0.3</v>
       </c>
       <c r="R16" s="16" t="n">
-        <v>14.66666666666667</v>
+        <v>13.5</v>
       </c>
       <c r="S16" s="16" t="n">
-        <v>123.3333333333333</v>
+        <v>105</v>
       </c>
       <c r="T16" s="16" t="n">
-        <v>18.33333333333333</v>
+        <v>17.5</v>
       </c>
       <c r="U16" s="16" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="V16" s="16" t="n">
-        <v>26.66666666666667</v>
+        <v>22.5</v>
       </c>
       <c r="W16" s="16" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="X16" s="16" t="n">
         <v>0</v>
@@ -2718,7 +2587,7 @@
         <v>0.1</v>
       </c>
       <c r="AD16" s="16" t="n">
-        <v>18.33333333333333</v>
+        <v>17.5</v>
       </c>
       <c r="AE16" s="16" t="n">
         <v>0</v>
@@ -2727,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="AG16" s="16" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="AH16" s="16" t="n">
         <v>0</v>
@@ -2736,265 +2605,265 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>26.08.2020</t>
+          <t>27.08.2020</t>
         </is>
       </c>
       <c r="F17" s="16" t="n">
-        <v>51</v>
+        <v>47.5</v>
       </c>
       <c r="G17" s="16" t="n">
-        <v>1.633333333333334</v>
+        <v>3.866666666666667</v>
       </c>
       <c r="H17" s="16" t="n">
-        <v>12.5</v>
+        <v>10.68333333333333</v>
       </c>
       <c r="I17" s="16" t="n">
-        <v>2.433333333333333</v>
+        <v>6.8</v>
       </c>
       <c r="J17" s="16" t="n">
-        <v>108.3333333333333</v>
+        <v>157.5</v>
       </c>
       <c r="K17" s="16" t="n"/>
       <c r="L17" s="16" t="n">
-        <v>75.10000000000001</v>
+        <v>67.78333333333333</v>
       </c>
       <c r="M17" s="16" t="n">
-        <v>11.73333333333333</v>
+        <v>7.016666666666667</v>
       </c>
       <c r="N17" s="16" t="n">
-        <v>0.7666666666666666</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="O17" s="16" t="n">
-        <v>2.033333333333333</v>
+        <v>3.483333333333333</v>
       </c>
       <c r="P17" s="16" t="n">
-        <v>0.3699999999999999</v>
+        <v>0.2866666666666667</v>
       </c>
       <c r="Q17" s="16" t="n">
-        <v>1.3</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="R17" s="16" t="n">
-        <v>259.3333333333333</v>
+        <v>278.8333333333333</v>
       </c>
       <c r="S17" s="16" t="n">
-        <v>240.6666666666667</v>
+        <v>345.1666666666667</v>
       </c>
       <c r="T17" s="16" t="n">
-        <v>34.33333333333334</v>
+        <v>26.5</v>
       </c>
       <c r="U17" s="16" t="n">
-        <v>20.33333333333333</v>
+        <v>22.38333333333334</v>
       </c>
       <c r="V17" s="16" t="n">
-        <v>43</v>
+        <v>74.83333333333333</v>
       </c>
       <c r="W17" s="16" t="n">
-        <v>1.1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="X17" s="16" t="n">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="Y17" s="16" t="n">
-        <v>910</v>
+        <v>455</v>
       </c>
       <c r="Z17" s="16" t="n">
-        <v>151.11</v>
+        <v>78.94500000000001</v>
       </c>
       <c r="AA17" s="16" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.04</v>
       </c>
       <c r="AB17" s="16" t="n">
-        <v>0.04</v>
+        <v>0.1583333333333334</v>
       </c>
       <c r="AC17" s="16" t="n">
-        <v>0.6433333333333334</v>
+        <v>2.79</v>
       </c>
       <c r="AD17" s="16" t="n">
-        <v>34.33333333333334</v>
+        <v>26.5</v>
       </c>
       <c r="AE17" s="16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF17" s="16" t="n">
-        <v>0.1666666666666667</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="AG17" s="16" t="n">
-        <v>0.4666666666666666</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AH17" s="16" t="n">
-        <v>0.7666666666666666</v>
+        <v>2.466666666666667</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>27.08.2020</t>
+          <t>28.08.2020</t>
         </is>
       </c>
       <c r="F18" s="16" t="n">
-        <v>47.5</v>
+        <v>100</v>
       </c>
       <c r="G18" s="16" t="n">
-        <v>3.866666666666667</v>
+        <v>0</v>
       </c>
       <c r="H18" s="16" t="n">
-        <v>10.68333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="I18" s="16" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="J18" s="16" t="n">
-        <v>157.5</v>
+        <v>235</v>
       </c>
       <c r="K18" s="16" t="n"/>
       <c r="L18" s="16" t="n">
-        <v>67.78333333333333</v>
+        <v>66.2</v>
       </c>
       <c r="M18" s="16" t="n">
-        <v>7.016666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="N18" s="16" t="n">
-        <v>3.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="O18" s="16" t="n">
-        <v>3.483333333333333</v>
+        <v>0</v>
       </c>
       <c r="P18" s="16" t="n">
-        <v>0.2866666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="16" t="n">
-        <v>1.733333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="R18" s="16" t="n">
-        <v>278.8333333333333</v>
+        <v>10</v>
       </c>
       <c r="S18" s="16" t="n">
-        <v>345.1666666666667</v>
+        <v>1</v>
       </c>
       <c r="T18" s="16" t="n">
-        <v>26.5</v>
+        <v>1</v>
       </c>
       <c r="U18" s="16" t="n">
-        <v>22.38333333333334</v>
+        <v>0</v>
       </c>
       <c r="V18" s="16" t="n">
-        <v>74.83333333333333</v>
+        <v>0</v>
       </c>
       <c r="W18" s="16" t="n">
-        <v>0.9166666666666666</v>
+        <v>0</v>
       </c>
       <c r="X18" s="16" t="n">
-        <v>3.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="16" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="16" t="n">
-        <v>78.94500000000001</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="16" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="16" t="n">
-        <v>0.1583333333333334</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="16" t="n">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="16" t="n">
-        <v>26.5</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="16" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="16" t="n">
-        <v>1.083333333333333</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="16" t="n">
-        <v>4.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="16" t="n">
-        <v>2.466666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>28.08.2020</t>
+          <t>29.08.2020</t>
         </is>
       </c>
       <c r="F19" s="16" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G19" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="16" t="n">
-        <v>0.4</v>
+        <v>20</v>
       </c>
       <c r="I19" s="16" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="16" t="n">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="K19" s="16" t="n"/>
       <c r="L19" s="16" t="n">
-        <v>66.2</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="M19" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="N19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P19" s="16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q19" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R19" s="16" t="n">
+        <v>17</v>
+      </c>
+      <c r="S19" s="16" t="n">
+        <v>160</v>
+      </c>
+      <c r="T19" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="U19" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="V19" s="16" t="n">
+        <v>35</v>
+      </c>
+      <c r="W19" s="16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AC19" s="16" t="n">
         <v>0.1</v>
       </c>
-      <c r="N19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R19" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="S19" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="U19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="AD19" s="16" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AE19" s="16" t="n">
         <v>0</v>
@@ -3003,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="AG19" s="16" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AH19" s="16" t="n">
         <v>0</v>
@@ -3012,93 +2881,93 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>29.08.2020</t>
+          <t>24.08.2020</t>
         </is>
       </c>
       <c r="F20" s="16" t="n">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="G20" s="16" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H20" s="16" t="n">
-        <v>24.1</v>
+        <v>20</v>
       </c>
       <c r="I20" s="16" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J20" s="16" t="n">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="K20" s="16" t="n"/>
       <c r="L20" s="16" t="n">
-        <v>64.2</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="M20" s="16" t="n">
-        <v>0.6499999999999999</v>
+        <v>20</v>
       </c>
       <c r="N20" s="16" t="n">
-        <v>23.45</v>
+        <v>0</v>
       </c>
       <c r="O20" s="16" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="P20" s="16" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Q20" s="16" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="R20" s="16" t="n">
-        <v>400</v>
+        <v>17</v>
       </c>
       <c r="S20" s="16" t="n">
-        <v>117.5</v>
+        <v>160</v>
       </c>
       <c r="T20" s="16" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="U20" s="16" t="n">
-        <v>52.5</v>
+        <v>25</v>
       </c>
       <c r="V20" s="16" t="n">
-        <v>102.5</v>
+        <v>35</v>
       </c>
       <c r="W20" s="16" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="X20" s="16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="16" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="16" t="n">
-        <v>0.05500000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AC20" s="16" t="n">
-        <v>1.165</v>
+        <v>0.1</v>
       </c>
       <c r="AD20" s="16" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AE20" s="16" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="16" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="16" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="AH20" s="16" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3157,33 +3026,33 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="n"/>
-      <c r="B3" s="18" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="C3" s="18" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>Время</t>
         </is>
       </c>
-      <c r="D3" s="18" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>Длительность, мин.</t>
         </is>
       </c>
-      <c r="E3" s="18" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>Тип нагрузки</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr"/>
-      <c r="G3" s="18" t="inlineStr">
+      <c r="F3" s="7" t="inlineStr"/>
+      <c r="G3" s="6" t="inlineStr">
         <is>
           <t>Время</t>
         </is>
       </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="H3" s="6" t="inlineStr">
         <is>
           <t>Длительность, ч.</t>
         </is>
@@ -3191,20 +3060,20 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="n"/>
-      <c r="B4" s="19" t="inlineStr">
+      <c r="B4" s="18" t="inlineStr">
         <is>
           <t>05.08.2020</t>
         </is>
       </c>
-      <c r="C4" s="20" t="inlineStr">
+      <c r="C4" s="19" t="inlineStr">
         <is>
           <t>14:33</t>
         </is>
       </c>
-      <c r="D4" s="21" t="n">
+      <c r="D4" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="E4" s="20" t="inlineStr">
+      <c r="E4" s="19" t="inlineStr">
         <is>
           <t>Уборка</t>
         </is>
@@ -3214,18 +3083,103 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G4" s="20" t="inlineStr">
+      <c r="G4" s="19" t="inlineStr">
         <is>
           <t>9:00</t>
         </is>
       </c>
-      <c r="H4" s="20" t="n">
+      <c r="H4" s="19" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
+    <row r="5">
+      <c r="A5" s="17" t="n"/>
+      <c r="B5" s="18" t="inlineStr">
+        <is>
+          <t>29.08.2020</t>
+        </is>
+      </c>
+      <c r="C5" s="19" t="inlineStr">
+        <is>
+          <t>11:17
+19:11</t>
+        </is>
+      </c>
+      <c r="D5" s="19" t="inlineStr">
+        <is>
+          <t>40
+10</t>
+        </is>
+      </c>
+      <c r="E5" s="19" t="inlineStr">
+        <is>
+          <t>Уборка
+Зарядка</t>
+        </is>
+      </c>
+      <c r="F5" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ </t>
+        </is>
+      </c>
+      <c r="G5" s="19" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H5" s="19" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="17" t="n"/>
+      <c r="B6" s="18" t="inlineStr">
+        <is>
+          <t>30.08.2020</t>
+        </is>
+      </c>
+      <c r="C6" s="19" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D6" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" s="19" t="inlineStr">
+        <is>
+          <t>Ходьба</t>
+        </is>
+      </c>
+      <c r="F6" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G6" s="19" t="n"/>
+      <c r="H6" s="19" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="17" t="n"/>
+      <c r="B7" s="18" t="inlineStr">
+        <is>
+          <t>31.08.2020</t>
+        </is>
+      </c>
+      <c r="C7" s="19" t="n"/>
+      <c r="D7" s="19" t="n"/>
+      <c r="E7" s="19" t="n"/>
+      <c r="F7" s="17" t="n"/>
+      <c r="G7" s="19" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H7" s="19" t="n">
+        <v>11</v>
+      </c>
+    </row>
     <row r="8"/>
     <row r="9"/>
     <row r="10"/>

--- a/app/artemtvi.xlsx
+++ b/app/artemtvi.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,6 +36,7 @@
     <font>
       <b val="1"/>
     </font>
+    <font/>
   </fonts>
   <fills count="5">
     <fill>
@@ -167,7 +168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -538,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH20"/>
+  <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,12 +800,12 @@
       <c r="A4" s="8" t="inlineStr"/>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>24.08.2020</t>
+          <t>01.09.2020</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
@@ -814,196 +815,228 @@
       </c>
       <c r="E4" s="10" t="inlineStr">
         <is>
-          <t>1. Вина десертные</t>
-        </is>
-      </c>
-      <c r="F4" s="11" t="n">
-        <v>50</v>
+          <t>1. Омлет натуральный
+2. Вода</t>
+        </is>
+      </c>
+      <c r="F4" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">140	
+100	</t>
+        </is>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,5	</t>
+          <t xml:space="preserve">9,6	
+0,0	</t>
         </is>
       </c>
       <c r="H4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">20,0	</t>
+          <t xml:space="preserve">1,9	
+0,0	</t>
         </is>
       </c>
       <c r="I4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">15,4	
+0,0	</t>
         </is>
       </c>
       <c r="J4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">172,0	</t>
+          <t xml:space="preserve">184,0	
+0,0	</t>
         </is>
       </c>
       <c r="K4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">	</t>
+          <t xml:space="preserve">	
+	</t>
         </is>
       </c>
       <c r="L4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">64,1	</t>
+          <t xml:space="preserve">70,8	
+100,0	</t>
         </is>
       </c>
       <c r="M4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">20,0	</t>
+          <t xml:space="preserve">0,0	
+0,0	</t>
         </is>
       </c>
       <c r="N4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">0,0	
+0,0	</t>
         </is>
       </c>
       <c r="O4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,6	</t>
+          <t xml:space="preserve">0,0	
+0,0	</t>
         </is>
       </c>
       <c r="P4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,6	</t>
+          <t xml:space="preserve">0,0	
+0,0	</t>
         </is>
       </c>
       <c r="Q4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,3	</t>
+          <t xml:space="preserve">1,9	
+0,0	</t>
         </is>
       </c>
       <c r="R4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">17,0	</t>
+          <t xml:space="preserve">474,0	
+0,0	</t>
         </is>
       </c>
       <c r="S4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">160,0	</t>
+          <t xml:space="preserve">143,0	
+0,0	</t>
         </is>
       </c>
       <c r="T4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">20,0	</t>
+          <t xml:space="preserve">78,0	
+0,0	</t>
         </is>
       </c>
       <c r="U4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">25,0	</t>
+          <t xml:space="preserve">13,0	
+0,0	</t>
         </is>
       </c>
       <c r="V4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">35,0	</t>
+          <t xml:space="preserve">182,0	
+0,0	</t>
         </is>
       </c>
       <c r="W4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,1	</t>
+          <t xml:space="preserve">1,9	
+4,5	</t>
         </is>
       </c>
       <c r="X4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">220,0	
+0,0	</t>
         </is>
       </c>
       <c r="Y4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">80,0	
+0,0	</t>
         </is>
       </c>
       <c r="Z4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">233,33	
+0,0	</t>
         </is>
       </c>
       <c r="AA4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">0,06	
+0,0	</t>
         </is>
       </c>
       <c r="AB4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,01	</t>
+          <t xml:space="preserve">0,36	
+0,0	</t>
         </is>
       </c>
       <c r="AC4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,1	</t>
+          <t xml:space="preserve">0,17	
+0,0	</t>
         </is>
       </c>
       <c r="AD4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">0,2	
+0,0	</t>
         </is>
       </c>
       <c r="AE4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">0,0	
+0,0	</t>
         </is>
       </c>
       <c r="AF4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">0,0	
+0,0	</t>
         </is>
       </c>
       <c r="AG4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,2	</t>
+          <t xml:space="preserve">0,0	
+0,0	</t>
         </is>
       </c>
       <c r="AH4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">0,0	
+0,0	</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="inlineStr"/>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>25.08.2020</t>
-        </is>
-      </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>13:56</t>
-        </is>
-      </c>
-      <c r="D5" s="12" t="inlineStr">
-        <is>
-          <t>Обед</t>
-        </is>
-      </c>
-      <c r="E5" s="13" t="inlineStr">
-        <is>
-          <t>1. Вина полудесертные</t>
-        </is>
-      </c>
-      <c r="F5" s="14" t="n">
-        <v>70</v>
-      </c>
-      <c r="G5" s="14" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>01.09.2020</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>Перекус</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t>1. Колбаса Дорожная</t>
+        </is>
+      </c>
+      <c r="F5" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="G5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17,0	</t>
+        </is>
+      </c>
+      <c r="H5" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">0,4	</t>
         </is>
       </c>
-      <c r="H5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12,0	</t>
-        </is>
-      </c>
-      <c r="I5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="J5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">140,0	</t>
+      <c r="I5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">47,7	</t>
+        </is>
+      </c>
+      <c r="J5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">498,0	</t>
         </is>
       </c>
       <c r="K5" s="5" t="inlineStr">
@@ -1011,119 +1044,119 @@
           <t xml:space="preserve">	</t>
         </is>
       </c>
-      <c r="L5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">72,2	</t>
-        </is>
-      </c>
-      <c r="M5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12,0	</t>
-        </is>
-      </c>
-      <c r="N5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="O5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1,6	</t>
-        </is>
-      </c>
-      <c r="P5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,6	</t>
-        </is>
-      </c>
-      <c r="Q5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,3	</t>
-        </is>
-      </c>
-      <c r="R5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">17,0	</t>
-        </is>
-      </c>
-      <c r="S5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">160,0	</t>
-        </is>
-      </c>
-      <c r="T5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">20,0	</t>
-        </is>
-      </c>
-      <c r="U5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">25,0	</t>
-        </is>
-      </c>
-      <c r="V5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">35,0	</t>
-        </is>
-      </c>
-      <c r="W5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1,1	</t>
-        </is>
-      </c>
-      <c r="X5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="Y5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="Z5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AA5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AB5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,01	</t>
-        </is>
-      </c>
-      <c r="AC5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,1	</t>
-        </is>
-      </c>
-      <c r="AD5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AE5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AF5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AG5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,1	</t>
-        </is>
-      </c>
-      <c r="AH5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
+      <c r="L5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29,9	</t>
+        </is>
+      </c>
+      <c r="M5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,4	</t>
+        </is>
+      </c>
+      <c r="N5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="O5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="P5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="Q5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5,0	</t>
+        </is>
+      </c>
+      <c r="R5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1748,0	</t>
+        </is>
+      </c>
+      <c r="S5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">290,0	</t>
+        </is>
+      </c>
+      <c r="T5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24,0	</t>
+        </is>
+      </c>
+      <c r="U5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24,0	</t>
+        </is>
+      </c>
+      <c r="V5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">202,0	</t>
+        </is>
+      </c>
+      <c r="W5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2,2	</t>
+        </is>
+      </c>
+      <c r="X5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="Y5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="Z5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AA5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,64	</t>
+        </is>
+      </c>
+      <c r="AB5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,22	</t>
+        </is>
+      </c>
+      <c r="AC5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3,0	</t>
+        </is>
+      </c>
+      <c r="AD5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AE5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">60,0	</t>
+        </is>
+      </c>
+      <c r="AF5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17,5	</t>
+        </is>
+      </c>
+      <c r="AG5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6,8	</t>
+        </is>
+      </c>
+      <c r="AH5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,8	</t>
         </is>
       </c>
     </row>
@@ -1136,30 +1169,30 @@
       </c>
       <c r="C6" s="12" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="D6" s="12" t="inlineStr">
         <is>
-          <t>Ужин</t>
+          <t>Обед</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
         <is>
-          <t>1. Вина полусладкие белые и красные (в т.ч. шампанское)</t>
+          <t>1. Вина полудесертные</t>
         </is>
       </c>
       <c r="F6" s="14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,2	</t>
+          <t xml:space="preserve">0,4	</t>
         </is>
       </c>
       <c r="H6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">5,0	</t>
+          <t xml:space="preserve">12,0	</t>
         </is>
       </c>
       <c r="I6" s="14" t="inlineStr">
@@ -1169,7 +1202,7 @@
       </c>
       <c r="J6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">88,0	</t>
+          <t xml:space="preserve">140,0	</t>
         </is>
       </c>
       <c r="K6" s="5" t="inlineStr">
@@ -1179,12 +1212,12 @@
       </c>
       <c r="L6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">82,7	</t>
+          <t xml:space="preserve">72,2	</t>
         </is>
       </c>
       <c r="M6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">5,0	</t>
+          <t xml:space="preserve">12,0	</t>
         </is>
       </c>
       <c r="N6" s="14" t="inlineStr">
@@ -1209,32 +1242,32 @@
       </c>
       <c r="R6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">10,0	</t>
+          <t xml:space="preserve">17,0	</t>
         </is>
       </c>
       <c r="S6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">50,0	</t>
+          <t xml:space="preserve">160,0	</t>
         </is>
       </c>
       <c r="T6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">15,0	</t>
+          <t xml:space="preserve">20,0	</t>
         </is>
       </c>
       <c r="U6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">10,0	</t>
+          <t xml:space="preserve">25,0	</t>
         </is>
       </c>
       <c r="V6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">10,0	</t>
+          <t xml:space="preserve">35,0	</t>
         </is>
       </c>
       <c r="W6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,4	</t>
+          <t xml:space="preserve">1,1	</t>
         </is>
       </c>
       <c r="X6" s="14" t="inlineStr">
@@ -1295,199 +1328,167 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="inlineStr"/>
-      <c r="B7" s="9" t="inlineStr">
-        <is>
-          <t>27.08.2020</t>
-        </is>
-      </c>
-      <c r="C7" s="9" t="inlineStr">
-        <is>
-          <t>17:36</t>
-        </is>
-      </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>Обед</t>
-        </is>
-      </c>
-      <c r="E7" s="10" t="inlineStr">
-        <is>
-          <t>1. Грибы жареные (сушеные)
-2. Кабачки жареные</t>
-        </is>
-      </c>
-      <c r="F7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">90	
-30	</t>
-        </is>
-      </c>
-      <c r="G7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11,3	
-1,3	</t>
-        </is>
-      </c>
-      <c r="H7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1,2	
-9,3	</t>
-        </is>
-      </c>
-      <c r="I7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">24,4	
-6,0	</t>
-        </is>
-      </c>
-      <c r="J7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">270,0	
-96,0	</t>
+      <c r="B7" s="12" t="inlineStr">
+        <is>
+          <t>25.08.2020</t>
+        </is>
+      </c>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="D7" s="12" t="inlineStr">
+        <is>
+          <t>Ужин</t>
+        </is>
+      </c>
+      <c r="E7" s="13" t="inlineStr">
+        <is>
+          <t>1. Вина полусладкие белые и красные (в т.ч. шампанское)</t>
+        </is>
+      </c>
+      <c r="F7" s="14" t="n">
+        <v>76</v>
+      </c>
+      <c r="G7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,2	</t>
+        </is>
+      </c>
+      <c r="H7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5,0	</t>
+        </is>
+      </c>
+      <c r="I7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="J7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88,0	</t>
         </is>
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">	
-	</t>
-        </is>
-      </c>
-      <c r="L7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">45,0	
-80,9	</t>
-        </is>
-      </c>
-      <c r="M7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1,2	
-6,2	</t>
-        </is>
-      </c>
-      <c r="N7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	
-3,1	</t>
-        </is>
-      </c>
-      <c r="O7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">13,1	
-0,5	</t>
-        </is>
-      </c>
-      <c r="P7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	
-0,12	</t>
-        </is>
-      </c>
-      <c r="Q7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5,0	
-1,5	</t>
-        </is>
-      </c>
-      <c r="R7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">470,0	
-359,0	</t>
-        </is>
-      </c>
-      <c r="S7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1044,0	
-325,0	</t>
-        </is>
-      </c>
-      <c r="T7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">40,0	
-26,0	</t>
-        </is>
-      </c>
-      <c r="U7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">44,0	
-1,3	</t>
-        </is>
-      </c>
-      <c r="V7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">241,0	
-20,0	</t>
-        </is>
-      </c>
-      <c r="W7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1,7	
-0,6	</t>
-        </is>
-      </c>
-      <c r="X7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	
-0,0	</t>
-        </is>
-      </c>
-      <c r="Y7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	
-40,0	</t>
-        </is>
-      </c>
-      <c r="Z7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	
-6,67	</t>
-        </is>
-      </c>
-      <c r="AA7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,05	
-0,04	</t>
-        </is>
-      </c>
-      <c r="AB7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,81	
-0,04	</t>
-        </is>
-      </c>
-      <c r="AC7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">14,5	
-0,74	</t>
-        </is>
-      </c>
-      <c r="AD7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7,0	
-10,7	</t>
-        </is>
-      </c>
-      <c r="AE7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	
-0,0	</t>
-        </is>
-      </c>
-      <c r="AF7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3,7	
-0,0	</t>
-        </is>
-      </c>
-      <c r="AG7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">25,2	
-0,0	</t>
-        </is>
-      </c>
-      <c r="AH7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11,5	
-0,0	</t>
+          <t xml:space="preserve">	</t>
+        </is>
+      </c>
+      <c r="L7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">82,7	</t>
+        </is>
+      </c>
+      <c r="M7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5,0	</t>
+        </is>
+      </c>
+      <c r="N7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="O7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,6	</t>
+        </is>
+      </c>
+      <c r="P7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,6	</t>
+        </is>
+      </c>
+      <c r="Q7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,3	</t>
+        </is>
+      </c>
+      <c r="R7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10,0	</t>
+        </is>
+      </c>
+      <c r="S7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50,0	</t>
+        </is>
+      </c>
+      <c r="T7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15,0	</t>
+        </is>
+      </c>
+      <c r="U7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10,0	</t>
+        </is>
+      </c>
+      <c r="V7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10,0	</t>
+        </is>
+      </c>
+      <c r="W7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,4	</t>
+        </is>
+      </c>
+      <c r="X7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="Y7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="Z7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AA7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AB7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,01	</t>
+        </is>
+      </c>
+      <c r="AC7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,1	</t>
+        </is>
+      </c>
+      <c r="AD7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AE7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AF7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AG7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,1	</t>
+        </is>
+      </c>
+      <c r="AH7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
     </row>
@@ -1500,160 +1501,192 @@
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:36</t>
         </is>
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>Перекус</t>
+          <t>Обед</t>
         </is>
       </c>
       <c r="E8" s="10" t="inlineStr">
         <is>
-          <t>1. Вина крепкие</t>
-        </is>
-      </c>
-      <c r="F8" s="11" t="n">
-        <v>45</v>
+          <t>1. Грибы жареные (сушеные)
+2. Кабачки жареные</t>
+        </is>
+      </c>
+      <c r="F8" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">90	
+30	</t>
+        </is>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,4	</t>
+          <t xml:space="preserve">11,3	
+1,3	</t>
         </is>
       </c>
       <c r="H8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">12,0	</t>
+          <t xml:space="preserve">1,2	
+9,3	</t>
         </is>
       </c>
       <c r="I8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">24,4	
+6,0	</t>
         </is>
       </c>
       <c r="J8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">163,0	</t>
+          <t xml:space="preserve">270,0	
+96,0	</t>
         </is>
       </c>
       <c r="K8" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">	</t>
+          <t xml:space="preserve">	
+	</t>
         </is>
       </c>
       <c r="L8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">69,2	</t>
+          <t xml:space="preserve">45,0	
+80,9	</t>
         </is>
       </c>
       <c r="M8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">12,0	</t>
+          <t xml:space="preserve">1,2	
+6,2	</t>
         </is>
       </c>
       <c r="N8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">0,0	
+3,1	</t>
         </is>
       </c>
       <c r="O8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,6	</t>
+          <t xml:space="preserve">13,1	
+0,5	</t>
         </is>
       </c>
       <c r="P8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,6	</t>
+          <t xml:space="preserve">0,0	
+0,12	</t>
         </is>
       </c>
       <c r="Q8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,3	</t>
+          <t xml:space="preserve">5,0	
+1,5	</t>
         </is>
       </c>
       <c r="R8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">15,0	</t>
+          <t xml:space="preserve">470,0	
+359,0	</t>
         </is>
       </c>
       <c r="S8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">150,0	</t>
+          <t xml:space="preserve">1044,0	
+325,0	</t>
         </is>
       </c>
       <c r="T8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">15,0	</t>
+          <t xml:space="preserve">40,0	
+26,0	</t>
         </is>
       </c>
       <c r="U8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">20,0	</t>
+          <t xml:space="preserve">44,0	
+1,3	</t>
         </is>
       </c>
       <c r="V8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">30,0	</t>
+          <t xml:space="preserve">241,0	
+20,0	</t>
         </is>
       </c>
       <c r="W8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,8	</t>
+          <t xml:space="preserve">1,7	
+0,6	</t>
         </is>
       </c>
       <c r="X8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">0,0	
+0,0	</t>
         </is>
       </c>
       <c r="Y8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">0,0	
+40,0	</t>
         </is>
       </c>
       <c r="Z8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">0,0	
+6,67	</t>
         </is>
       </c>
       <c r="AA8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">0,05	
+0,04	</t>
         </is>
       </c>
       <c r="AB8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,01	</t>
+          <t xml:space="preserve">0,81	
+0,04	</t>
         </is>
       </c>
       <c r="AC8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,1	</t>
+          <t xml:space="preserve">14,5	
+0,74	</t>
         </is>
       </c>
       <c r="AD8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">7,0	
+10,7	</t>
         </is>
       </c>
       <c r="AE8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">0,0	
+0,0	</t>
         </is>
       </c>
       <c r="AF8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">3,7	
+0,0	</t>
         </is>
       </c>
       <c r="AG8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,1	</t>
+          <t xml:space="preserve">25,2	
+0,0	</t>
         </is>
       </c>
       <c r="AH8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">11,5	
+0,0	</t>
         </is>
       </c>
     </row>
@@ -1666,12 +1699,12 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>17:49</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="D9" s="9" t="inlineStr">
         <is>
-          <t>Завтрак</t>
+          <t>Перекус</t>
         </is>
       </c>
       <c r="E9" s="10" t="inlineStr">
@@ -1832,1017 +1865,1091 @@
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>17:49</t>
         </is>
       </c>
       <c r="D10" s="9" t="inlineStr">
         <is>
-          <t>Ужин</t>
+          <t>Завтрак</t>
         </is>
       </c>
       <c r="E10" s="10" t="inlineStr">
         <is>
-          <t>1. Баклажаны, фаршированные овощами
-2. Биточки пшенные</t>
-        </is>
-      </c>
-      <c r="F10" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">55	
-20	</t>
-        </is>
+          <t>1. Вина крепкие</t>
+        </is>
+      </c>
+      <c r="F10" s="11" t="n">
+        <v>45</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">2,9	
-6,9	</t>
+          <t xml:space="preserve">0,4	</t>
         </is>
       </c>
       <c r="H10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">7,4	
-22,2	</t>
+          <t xml:space="preserve">12,0	</t>
         </is>
       </c>
       <c r="I10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">4,5	
-5,9	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="J10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">83,0	
-170,0	</t>
+          <t xml:space="preserve">163,0	</t>
         </is>
       </c>
       <c r="K10" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">	
-	</t>
+          <t xml:space="preserve">	</t>
         </is>
       </c>
       <c r="L10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">80,2	
-62,2	</t>
+          <t xml:space="preserve">69,2	</t>
         </is>
       </c>
       <c r="M10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">6,6	
-4,1	</t>
+          <t xml:space="preserve">12,0	</t>
         </is>
       </c>
       <c r="N10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,8	
-18,1	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="O10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">2,9	
-1,2	</t>
+          <t xml:space="preserve">1,6	</t>
         </is>
       </c>
       <c r="P10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,3	
-0,1	</t>
+          <t xml:space="preserve">0,6	</t>
         </is>
       </c>
       <c r="Q10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,8	
-1,5	</t>
+          <t xml:space="preserve">0,3	</t>
         </is>
       </c>
       <c r="R10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">382,0	
-432,0	</t>
+          <t xml:space="preserve">15,0	</t>
         </is>
       </c>
       <c r="S10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">324,0	
-78,0	</t>
+          <t xml:space="preserve">150,0	</t>
         </is>
       </c>
       <c r="T10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">38,0	
-25,0	</t>
+          <t xml:space="preserve">15,0	</t>
         </is>
       </c>
       <c r="U10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">22,0	
-27,0	</t>
+          <t xml:space="preserve">20,0	</t>
         </is>
       </c>
       <c r="V10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">52,0	
-76,0	</t>
+          <t xml:space="preserve">30,0	</t>
         </is>
       </c>
       <c r="W10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,7	
-0,9	</t>
+          <t xml:space="preserve">0,8	</t>
         </is>
       </c>
       <c r="X10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-20,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="Y10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">2680,0	
-10,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="Z10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">445,0	
-22,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="AA10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,05	
-0,1	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="AB10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,06	
-0,02	</t>
+          <t xml:space="preserve">0,01	</t>
         </is>
       </c>
       <c r="AC10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,8	
-0,5	</t>
+          <t xml:space="preserve">0,1	</t>
         </is>
       </c>
       <c r="AD10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">5,5	
-0,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="AE10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,0	
-9,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="AF10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0,5	
-2,3	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
       <c r="AG10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,2	
-1,4	</t>
+          <t xml:space="preserve">0,1	</t>
         </is>
       </c>
       <c r="AH10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">2,3	
-1,0	</t>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="inlineStr"/>
-      <c r="B11" s="12" t="inlineStr">
-        <is>
-          <t>28.08.2020</t>
-        </is>
-      </c>
-      <c r="C11" s="12" t="inlineStr">
-        <is>
-          <t>23:24</t>
-        </is>
-      </c>
-      <c r="D11" s="12" t="inlineStr">
-        <is>
-          <t>Перекус</t>
-        </is>
-      </c>
-      <c r="E11" s="13" t="inlineStr">
-        <is>
-          <t>1. Водка</t>
-        </is>
-      </c>
-      <c r="F11" s="14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="H11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,4	</t>
-        </is>
-      </c>
-      <c r="I11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="J11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">235,0	</t>
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>27.08.2020</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>18:09</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Ужин</t>
+        </is>
+      </c>
+      <c r="E11" s="10" t="inlineStr">
+        <is>
+          <t>1. Баклажаны, фаршированные овощами
+2. Биточки пшенные</t>
+        </is>
+      </c>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55	
+20	</t>
+        </is>
+      </c>
+      <c r="G11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2,9	
+6,9	</t>
+        </is>
+      </c>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7,4	
+22,2	</t>
+        </is>
+      </c>
+      <c r="I11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4,5	
+5,9	</t>
+        </is>
+      </c>
+      <c r="J11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">83,0	
+170,0	</t>
         </is>
       </c>
       <c r="K11" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">	</t>
-        </is>
-      </c>
-      <c r="L11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">66,2	</t>
-        </is>
-      </c>
-      <c r="M11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,1	</t>
-        </is>
-      </c>
-      <c r="N11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="O11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="P11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="Q11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,1	</t>
-        </is>
-      </c>
-      <c r="R11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10,0	</t>
-        </is>
-      </c>
-      <c r="S11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1,0	</t>
-        </is>
-      </c>
-      <c r="T11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1,0	</t>
-        </is>
-      </c>
-      <c r="U11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="V11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="W11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="X11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="Y11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="Z11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AA11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AB11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AC11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AD11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AE11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AF11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AG11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AH11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
+          <t xml:space="preserve">	
+	</t>
+        </is>
+      </c>
+      <c r="L11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80,2	
+62,2	</t>
+        </is>
+      </c>
+      <c r="M11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6,6	
+4,1	</t>
+        </is>
+      </c>
+      <c r="N11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,8	
+18,1	</t>
+        </is>
+      </c>
+      <c r="O11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2,9	
+1,2	</t>
+        </is>
+      </c>
+      <c r="P11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,3	
+0,1	</t>
+        </is>
+      </c>
+      <c r="Q11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,8	
+1,5	</t>
+        </is>
+      </c>
+      <c r="R11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">382,0	
+432,0	</t>
+        </is>
+      </c>
+      <c r="S11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">324,0	
+78,0	</t>
+        </is>
+      </c>
+      <c r="T11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">38,0	
+25,0	</t>
+        </is>
+      </c>
+      <c r="U11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22,0	
+27,0	</t>
+        </is>
+      </c>
+      <c r="V11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">52,0	
+76,0	</t>
+        </is>
+      </c>
+      <c r="W11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,7	
+0,9	</t>
+        </is>
+      </c>
+      <c r="X11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	
+20,0	</t>
+        </is>
+      </c>
+      <c r="Y11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2680,0	
+10,0	</t>
+        </is>
+      </c>
+      <c r="Z11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">445,0	
+22,0	</t>
+        </is>
+      </c>
+      <c r="AA11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,05	
+0,1	</t>
+        </is>
+      </c>
+      <c r="AB11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,06	
+0,02	</t>
+        </is>
+      </c>
+      <c r="AC11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,8	
+0,5	</t>
+        </is>
+      </c>
+      <c r="AD11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5,5	
+0,0	</t>
+        </is>
+      </c>
+      <c r="AE11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	
+9,0	</t>
+        </is>
+      </c>
+      <c r="AF11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,5	
+2,3	</t>
+        </is>
+      </c>
+      <c r="AG11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,2	
+1,4	</t>
+        </is>
+      </c>
+      <c r="AH11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2,3	
+1,0	</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="inlineStr"/>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B12" s="12" t="inlineStr">
+        <is>
+          <t>28.08.2020</t>
+        </is>
+      </c>
+      <c r="C12" s="12" t="inlineStr">
+        <is>
+          <t>23:24</t>
+        </is>
+      </c>
+      <c r="D12" s="12" t="inlineStr">
+        <is>
+          <t>Перекус</t>
+        </is>
+      </c>
+      <c r="E12" s="13" t="inlineStr">
+        <is>
+          <t>1. Водка</t>
+        </is>
+      </c>
+      <c r="F12" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="H12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,4	</t>
+        </is>
+      </c>
+      <c r="I12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="J12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">235,0	</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	</t>
+        </is>
+      </c>
+      <c r="L12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">66,2	</t>
+        </is>
+      </c>
+      <c r="M12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,1	</t>
+        </is>
+      </c>
+      <c r="N12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="O12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="P12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="Q12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,1	</t>
+        </is>
+      </c>
+      <c r="R12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10,0	</t>
+        </is>
+      </c>
+      <c r="S12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,0	</t>
+        </is>
+      </c>
+      <c r="T12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,0	</t>
+        </is>
+      </c>
+      <c r="U12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="V12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="W12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="X12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="Y12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="Z12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AA12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AB12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AC12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AD12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AE12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AF12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AG12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AH12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr"/>
+      <c r="B13" s="9" t="inlineStr">
         <is>
           <t>29.08.2020</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="C13" s="9" t="inlineStr">
         <is>
           <t>20:46</t>
         </is>
       </c>
-      <c r="D12" s="9" t="inlineStr">
+      <c r="D13" s="9" t="inlineStr">
         <is>
           <t>Ужин</t>
         </is>
       </c>
-      <c r="E12" s="10" t="inlineStr">
+      <c r="E13" s="10" t="inlineStr">
         <is>
           <t>1. Вина десертные</t>
         </is>
       </c>
-      <c r="F12" s="11" t="n">
+      <c r="F13" s="11" t="n">
         <v>110</v>
       </c>
-      <c r="G12" s="11" t="inlineStr">
+      <c r="G13" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">0,5	</t>
         </is>
       </c>
-      <c r="H12" s="11" t="inlineStr">
+      <c r="H13" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">20,0	</t>
         </is>
       </c>
-      <c r="I12" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="J12" s="11" t="inlineStr">
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="J13" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">172,0	</t>
         </is>
       </c>
-      <c r="K12" s="5" t="inlineStr">
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">	</t>
         </is>
       </c>
-      <c r="L12" s="11" t="inlineStr">
+      <c r="L13" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">64,1	</t>
         </is>
       </c>
-      <c r="M12" s="11" t="inlineStr">
+      <c r="M13" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">20,0	</t>
         </is>
       </c>
-      <c r="N12" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="O12" s="11" t="inlineStr">
+      <c r="N13" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="O13" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">1,6	</t>
         </is>
       </c>
-      <c r="P12" s="11" t="inlineStr">
+      <c r="P13" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">0,6	</t>
         </is>
       </c>
-      <c r="Q12" s="11" t="inlineStr">
+      <c r="Q13" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">0,3	</t>
         </is>
       </c>
-      <c r="R12" s="11" t="inlineStr">
+      <c r="R13" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">17,0	</t>
         </is>
       </c>
-      <c r="S12" s="11" t="inlineStr">
+      <c r="S13" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">160,0	</t>
         </is>
       </c>
-      <c r="T12" s="11" t="inlineStr">
+      <c r="T13" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">20,0	</t>
         </is>
       </c>
-      <c r="U12" s="11" t="inlineStr">
+      <c r="U13" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">25,0	</t>
         </is>
       </c>
-      <c r="V12" s="11" t="inlineStr">
+      <c r="V13" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">35,0	</t>
         </is>
       </c>
-      <c r="W12" s="11" t="inlineStr">
+      <c r="W13" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">1,1	</t>
         </is>
       </c>
-      <c r="X12" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="Y12" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="Z12" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AA12" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AB12" s="11" t="inlineStr">
+      <c r="X13" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="Y13" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="Z13" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AA13" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AB13" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">0,01	</t>
         </is>
       </c>
-      <c r="AC12" s="11" t="inlineStr">
+      <c r="AC13" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">0,1	</t>
         </is>
       </c>
-      <c r="AD12" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AE12" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AF12" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-      <c r="AG12" s="11" t="inlineStr">
+      <c r="AD13" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AE13" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AF13" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
+        </is>
+      </c>
+      <c r="AG13" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">0,2	</t>
         </is>
       </c>
-      <c r="AH12" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0,0	</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>Срденее по дням</t>
+      <c r="AH13" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,0	</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>Дата</t>
-        </is>
-      </c>
-      <c r="C15" s="15" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="4" t="n"/>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>Масса, гр</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>Углеводы, гр</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Белки, гр</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>Жиры, гр</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>ККал</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Вода, в г</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>МДС, в г</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>Крахмал, в г</t>
-        </is>
-      </c>
-      <c r="O15" s="2" t="inlineStr">
-        <is>
-          <t>Пищ вол, в г</t>
-        </is>
-      </c>
-      <c r="P15" s="2" t="inlineStr">
-        <is>
-          <t>Орган кислота, в г</t>
-        </is>
-      </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>Зола, в г</t>
-        </is>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Натрий, в мг</t>
-        </is>
-      </c>
-      <c r="S15" s="2" t="inlineStr">
-        <is>
-          <t>Калий, в мг</t>
-        </is>
-      </c>
-      <c r="T15" s="2" t="inlineStr">
-        <is>
-          <t>Кальций, в мг</t>
-        </is>
-      </c>
-      <c r="U15" s="2" t="inlineStr">
-        <is>
-          <t>Магний, в мг</t>
-        </is>
-      </c>
-      <c r="V15" s="2" t="inlineStr">
-        <is>
-          <t>Фосфор, в мг</t>
-        </is>
-      </c>
-      <c r="W15" s="2" t="inlineStr">
-        <is>
-          <t>Железо, в мг</t>
-        </is>
-      </c>
-      <c r="X15" s="2" t="inlineStr">
-        <is>
-          <t>Ретинол, в мкг</t>
-        </is>
-      </c>
-      <c r="Y15" s="2" t="inlineStr">
-        <is>
-          <t>Каротин, в мкг</t>
-        </is>
-      </c>
-      <c r="Z15" s="2" t="inlineStr">
-        <is>
-          <t>Ретин экв, в мкг</t>
-        </is>
-      </c>
-      <c r="AA15" s="2" t="inlineStr">
-        <is>
-          <t>Тиамин, в мг</t>
-        </is>
-      </c>
-      <c r="AB15" s="2" t="inlineStr">
-        <is>
-          <t>Рибофлавин, в мг</t>
-        </is>
-      </c>
-      <c r="AC15" s="2" t="inlineStr">
-        <is>
-          <t>Ниацин, в мг</t>
-        </is>
-      </c>
-      <c r="AD15" s="2" t="inlineStr">
-        <is>
-          <t>Аскорб кисл, в мг</t>
-        </is>
-      </c>
-      <c r="AE15" s="2" t="inlineStr">
-        <is>
-          <t>Холестерин, в мг</t>
-        </is>
-      </c>
-      <c r="AF15" s="2" t="inlineStr">
-        <is>
-          <t>НЖК, в г</t>
-        </is>
-      </c>
-      <c r="AG15" s="2" t="inlineStr">
-        <is>
-          <t>Ниационвый эквивалент, в мг</t>
-        </is>
-      </c>
-      <c r="AH15" s="2" t="inlineStr">
-        <is>
-          <t>Токоферол эквивалент, в мг</t>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Срденее по дням</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>25.08.2020</t>
-        </is>
-      </c>
-      <c r="F16" s="16" t="n">
-        <v>73</v>
-      </c>
-      <c r="G16" s="16" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H16" s="16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="I16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="16" t="n">
-        <v>114</v>
-      </c>
-      <c r="K16" s="16" t="n"/>
-      <c r="L16" s="16" t="n">
-        <v>77.45</v>
-      </c>
-      <c r="M16" s="16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="N16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="16" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P16" s="16" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q16" s="16" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="R16" s="16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="S16" s="16" t="n">
-        <v>105</v>
-      </c>
-      <c r="T16" s="16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="U16" s="16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="V16" s="16" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="W16" s="16" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="X16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="16" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AC16" s="16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AD16" s="16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AH16" s="16" t="n">
-        <v>0</v>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="C16" s="15" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Масса, гр</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Углеводы, гр</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Белки, гр</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>Жиры, гр</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>ККал</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Вода, в г</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>МДС, в г</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>Крахмал, в г</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>Пищ вол, в г</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>Орган кислота, в г</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>Зола, в г</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Натрий, в мг</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>Калий, в мг</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>Кальций, в мг</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>Магний, в мг</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>Фосфор, в мг</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>Железо, в мг</t>
+        </is>
+      </c>
+      <c r="X16" s="2" t="inlineStr">
+        <is>
+          <t>Ретинол, в мкг</t>
+        </is>
+      </c>
+      <c r="Y16" s="2" t="inlineStr">
+        <is>
+          <t>Каротин, в мкг</t>
+        </is>
+      </c>
+      <c r="Z16" s="2" t="inlineStr">
+        <is>
+          <t>Ретин экв, в мкг</t>
+        </is>
+      </c>
+      <c r="AA16" s="2" t="inlineStr">
+        <is>
+          <t>Тиамин, в мг</t>
+        </is>
+      </c>
+      <c r="AB16" s="2" t="inlineStr">
+        <is>
+          <t>Рибофлавин, в мг</t>
+        </is>
+      </c>
+      <c r="AC16" s="2" t="inlineStr">
+        <is>
+          <t>Ниацин, в мг</t>
+        </is>
+      </c>
+      <c r="AD16" s="2" t="inlineStr">
+        <is>
+          <t>Аскорб кисл, в мг</t>
+        </is>
+      </c>
+      <c r="AE16" s="2" t="inlineStr">
+        <is>
+          <t>Холестерин, в мг</t>
+        </is>
+      </c>
+      <c r="AF16" s="2" t="inlineStr">
+        <is>
+          <t>НЖК, в г</t>
+        </is>
+      </c>
+      <c r="AG16" s="2" t="inlineStr">
+        <is>
+          <t>Ниационвый эквивалент, в мг</t>
+        </is>
+      </c>
+      <c r="AH16" s="2" t="inlineStr">
+        <is>
+          <t>Токоферол эквивалент, в мг</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>27.08.2020</t>
+          <t>25.08.2020</t>
         </is>
       </c>
       <c r="F17" s="16" t="n">
-        <v>47.5</v>
+        <v>73</v>
       </c>
       <c r="G17" s="16" t="n">
-        <v>3.866666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="H17" s="16" t="n">
-        <v>10.68333333333333</v>
+        <v>8.5</v>
       </c>
       <c r="I17" s="16" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="J17" s="16" t="n">
-        <v>157.5</v>
+        <v>114</v>
       </c>
       <c r="K17" s="16" t="n"/>
       <c r="L17" s="16" t="n">
-        <v>67.78333333333333</v>
+        <v>77.45</v>
       </c>
       <c r="M17" s="16" t="n">
-        <v>7.016666666666667</v>
+        <v>8.5</v>
       </c>
       <c r="N17" s="16" t="n">
-        <v>3.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="O17" s="16" t="n">
-        <v>3.483333333333333</v>
+        <v>1.6</v>
       </c>
       <c r="P17" s="16" t="n">
-        <v>0.2866666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="Q17" s="16" t="n">
-        <v>1.733333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="R17" s="16" t="n">
-        <v>278.8333333333333</v>
+        <v>13.5</v>
       </c>
       <c r="S17" s="16" t="n">
-        <v>345.1666666666667</v>
+        <v>105</v>
       </c>
       <c r="T17" s="16" t="n">
-        <v>26.5</v>
+        <v>17.5</v>
       </c>
       <c r="U17" s="16" t="n">
-        <v>22.38333333333334</v>
+        <v>17.5</v>
       </c>
       <c r="V17" s="16" t="n">
-        <v>74.83333333333333</v>
+        <v>22.5</v>
       </c>
       <c r="W17" s="16" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="X17" s="16" t="n">
-        <v>3.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="16" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="16" t="n">
-        <v>78.94500000000001</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="16" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="16" t="n">
-        <v>0.1583333333333334</v>
+        <v>0.01</v>
       </c>
       <c r="AC17" s="16" t="n">
-        <v>2.79</v>
+        <v>0.1</v>
       </c>
       <c r="AD17" s="16" t="n">
-        <v>26.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE17" s="16" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="16" t="n">
-        <v>1.083333333333333</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="16" t="n">
-        <v>4.666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="AH17" s="16" t="n">
-        <v>2.466666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>28.08.2020</t>
+          <t>27.08.2020</t>
         </is>
       </c>
       <c r="F18" s="16" t="n">
-        <v>100</v>
+        <v>47.5</v>
       </c>
       <c r="G18" s="16" t="n">
-        <v>0</v>
+        <v>3.866666666666667</v>
       </c>
       <c r="H18" s="16" t="n">
-        <v>0.4</v>
+        <v>10.68333333333333</v>
       </c>
       <c r="I18" s="16" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="J18" s="16" t="n">
-        <v>235</v>
+        <v>157.5</v>
       </c>
       <c r="K18" s="16" t="n"/>
       <c r="L18" s="16" t="n">
-        <v>66.2</v>
+        <v>67.78333333333333</v>
       </c>
       <c r="M18" s="16" t="n">
-        <v>0.1</v>
+        <v>7.016666666666667</v>
       </c>
       <c r="N18" s="16" t="n">
-        <v>0</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="O18" s="16" t="n">
-        <v>0</v>
+        <v>3.483333333333333</v>
       </c>
       <c r="P18" s="16" t="n">
-        <v>0</v>
+        <v>0.2866666666666667</v>
       </c>
       <c r="Q18" s="16" t="n">
-        <v>0.1</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="R18" s="16" t="n">
-        <v>10</v>
+        <v>278.8333333333333</v>
       </c>
       <c r="S18" s="16" t="n">
-        <v>1</v>
+        <v>345.1666666666667</v>
       </c>
       <c r="T18" s="16" t="n">
-        <v>1</v>
+        <v>26.5</v>
       </c>
       <c r="U18" s="16" t="n">
-        <v>0</v>
+        <v>22.38333333333334</v>
       </c>
       <c r="V18" s="16" t="n">
-        <v>0</v>
+        <v>74.83333333333333</v>
       </c>
       <c r="W18" s="16" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="X18" s="16" t="n">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="Y18" s="16" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="Z18" s="16" t="n">
-        <v>0</v>
+        <v>78.94500000000001</v>
       </c>
       <c r="AA18" s="16" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AB18" s="16" t="n">
-        <v>0</v>
+        <v>0.1583333333333334</v>
       </c>
       <c r="AC18" s="16" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AD18" s="16" t="n">
-        <v>1</v>
+        <v>26.5</v>
       </c>
       <c r="AE18" s="16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF18" s="16" t="n">
-        <v>0</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="AG18" s="16" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AH18" s="16" t="n">
-        <v>0</v>
+        <v>2.466666666666667</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>29.08.2020</t>
+          <t>28.08.2020</t>
         </is>
       </c>
       <c r="F19" s="16" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G19" s="16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H19" s="16" t="n">
-        <v>20</v>
+        <v>0.4</v>
       </c>
       <c r="I19" s="16" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="16" t="n">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="K19" s="16" t="n"/>
       <c r="L19" s="16" t="n">
-        <v>64.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="M19" s="16" t="n">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="N19" s="16" t="n">
         <v>0</v>
       </c>
       <c r="O19" s="16" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="P19" s="16" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="16" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R19" s="16" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="S19" s="16" t="n">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="T19" s="16" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="U19" s="16" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V19" s="16" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="W19" s="16" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="16" t="n">
         <v>0</v>
@@ -2857,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="AB19" s="16" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="16" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="16" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="16" t="n">
         <v>0</v>
@@ -2872,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="AG19" s="16" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="16" t="n">
         <v>0</v>
@@ -2881,11 +2988,11 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>24.08.2020</t>
+          <t>29.08.2020</t>
         </is>
       </c>
       <c r="F20" s="16" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="G20" s="16" t="n">
         <v>0.5</v>
@@ -2968,6 +3075,98 @@
       </c>
       <c r="AH20" s="16" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>01.09.2020</t>
+        </is>
+      </c>
+      <c r="F21" s="16" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="G21" s="16" t="n">
+        <v>8.866666666666667</v>
+      </c>
+      <c r="H21" s="16" t="n">
+        <v>0.7666666666666666</v>
+      </c>
+      <c r="I21" s="16" t="n">
+        <v>21.03333333333333</v>
+      </c>
+      <c r="J21" s="16" t="n">
+        <v>227.3333333333333</v>
+      </c>
+      <c r="K21" s="16" t="n"/>
+      <c r="L21" s="16" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="M21" s="16" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="N21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R21" s="16" t="n">
+        <v>740.6666666666666</v>
+      </c>
+      <c r="S21" s="16" t="n">
+        <v>144.3333333333333</v>
+      </c>
+      <c r="T21" s="16" t="n">
+        <v>34</v>
+      </c>
+      <c r="U21" s="16" t="n">
+        <v>12.33333333333333</v>
+      </c>
+      <c r="V21" s="16" t="n">
+        <v>128</v>
+      </c>
+      <c r="W21" s="16" t="n">
+        <v>2.866666666666667</v>
+      </c>
+      <c r="X21" s="16" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="Y21" s="16" t="n">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="Z21" s="16" t="n">
+        <v>77.77666666666667</v>
+      </c>
+      <c r="AA21" s="16" t="n">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="AB21" s="16" t="n">
+        <v>0.1933333333333333</v>
+      </c>
+      <c r="AC21" s="16" t="n">
+        <v>1.056666666666667</v>
+      </c>
+      <c r="AD21" s="16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE21" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF21" s="16" t="n">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="AG21" s="16" t="n">
+        <v>2.266666666666667</v>
+      </c>
+      <c r="AH21" s="16" t="n">
+        <v>0.2666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2975,7 +3174,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2987,7 +3186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,12 +3212,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Физическая активность</t>
         </is>
       </c>
-      <c r="G2" s="15" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Сон</t>
         </is>
@@ -3062,7 +3261,7 @@
       <c r="A4" s="17" t="n"/>
       <c r="B4" s="18" t="inlineStr">
         <is>
-          <t>05.08.2020</t>
+          <t>25.08.2020</t>
         </is>
       </c>
       <c r="C4" s="19" t="inlineStr">
@@ -3096,67 +3295,27 @@
       <c r="A5" s="17" t="n"/>
       <c r="B5" s="18" t="inlineStr">
         <is>
-          <t>29.08.2020</t>
-        </is>
-      </c>
-      <c r="C5" s="19" t="inlineStr">
-        <is>
-          <t>11:17
-19:11</t>
-        </is>
-      </c>
-      <c r="D5" s="19" t="inlineStr">
-        <is>
-          <t>40
-10</t>
-        </is>
-      </c>
-      <c r="E5" s="19" t="inlineStr">
-        <is>
-          <t>Уборка
-Зарядка</t>
-        </is>
-      </c>
-      <c r="F5" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
- </t>
-        </is>
-      </c>
-      <c r="G5" s="19" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="H5" s="19" t="n">
-        <v>11</v>
-      </c>
+          <t>26.08.2020</t>
+        </is>
+      </c>
+      <c r="C5" s="19" t="n"/>
+      <c r="D5" s="19" t="n"/>
+      <c r="E5" s="19" t="n"/>
+      <c r="F5" s="17" t="n"/>
+      <c r="G5" s="19" t="n"/>
+      <c r="H5" s="19" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="17" t="n"/>
       <c r="B6" s="18" t="inlineStr">
         <is>
-          <t>30.08.2020</t>
-        </is>
-      </c>
-      <c r="C6" s="19" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="D6" s="19" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" s="19" t="inlineStr">
-        <is>
-          <t>Ходьба</t>
-        </is>
-      </c>
-      <c r="F6" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+          <t>27.08.2020</t>
+        </is>
+      </c>
+      <c r="C6" s="19" t="n"/>
+      <c r="D6" s="19" t="n"/>
+      <c r="E6" s="19" t="n"/>
+      <c r="F6" s="17" t="n"/>
       <c r="G6" s="19" t="n"/>
       <c r="H6" s="19" t="n"/>
     </row>
@@ -3164,25 +3323,132 @@
       <c r="A7" s="17" t="n"/>
       <c r="B7" s="18" t="inlineStr">
         <is>
-          <t>31.08.2020</t>
+          <t>28.08.2020</t>
         </is>
       </c>
       <c r="C7" s="19" t="n"/>
       <c r="D7" s="19" t="n"/>
       <c r="E7" s="19" t="n"/>
       <c r="F7" s="17" t="n"/>
-      <c r="G7" s="19" t="inlineStr">
+      <c r="G7" s="19" t="n"/>
+      <c r="H7" s="19" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="17" t="n"/>
+      <c r="B8" s="18" t="inlineStr">
+        <is>
+          <t>29.08.2020</t>
+        </is>
+      </c>
+      <c r="C8" s="19" t="inlineStr">
+        <is>
+          <t>11:17
+19:11</t>
+        </is>
+      </c>
+      <c r="D8" s="19" t="inlineStr">
+        <is>
+          <t>40
+10</t>
+        </is>
+      </c>
+      <c r="E8" s="19" t="inlineStr">
+        <is>
+          <t>Уборка
+Зарядка</t>
+        </is>
+      </c>
+      <c r="F8" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ </t>
+        </is>
+      </c>
+      <c r="G8" s="19" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H8" s="19" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="17" t="n"/>
+      <c r="B9" s="18" t="inlineStr">
+        <is>
+          <t>30.08.2020</t>
+        </is>
+      </c>
+      <c r="C9" s="19" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D9" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" s="19" t="inlineStr">
+        <is>
+          <t>Ходьба</t>
+        </is>
+      </c>
+      <c r="F9" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G9" s="19" t="n"/>
+      <c r="H9" s="19" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="17" t="n"/>
+      <c r="B10" s="18" t="inlineStr">
+        <is>
+          <t>31.08.2020</t>
+        </is>
+      </c>
+      <c r="C10" s="19" t="n"/>
+      <c r="D10" s="19" t="n"/>
+      <c r="E10" s="19" t="n"/>
+      <c r="F10" s="17" t="n"/>
+      <c r="G10" s="19" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="H7" s="19" t="n">
+      <c r="H10" s="19" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
+    <row r="11">
+      <c r="A11" s="19" t="n"/>
+      <c r="B11" s="18" t="inlineStr">
+        <is>
+          <t>01.09.2020</t>
+        </is>
+      </c>
+      <c r="C11" s="19" t="inlineStr">
+        <is>
+          <t>14:13</t>
+        </is>
+      </c>
+      <c r="D11" s="19" t="n">
+        <v>23</v>
+      </c>
+      <c r="E11" s="19" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="F11" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G11" s="19" t="n"/>
+      <c r="H11" s="19" t="n"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="CBEB"/>
   <mergeCells count="1">

--- a/app/artemtvi.xlsx
+++ b/app/artemtvi.xlsx
@@ -168,10 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3186,7 +3186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3198,7 +3198,7 @@
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
@@ -3261,18 +3261,18 @@
       <c r="A4" s="17" t="n"/>
       <c r="B4" s="18" t="inlineStr">
         <is>
-          <t>25.08.2020</t>
-        </is>
-      </c>
-      <c r="C4" s="19" t="inlineStr">
-        <is>
-          <t>14:33</t>
-        </is>
-      </c>
-      <c r="D4" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" s="19" t="inlineStr">
+          <t>22.08.2020</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>14:32</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" s="11" t="inlineStr">
         <is>
           <t>Уборка</t>
         </is>
@@ -3282,172 +3282,296 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G4" s="19" t="inlineStr">
-        <is>
-          <t>9:00</t>
-        </is>
-      </c>
-      <c r="H4" s="19" t="n">
-        <v>9</v>
-      </c>
+      <c r="G4" s="11" t="n"/>
+      <c r="H4" s="11" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="n"/>
-      <c r="B5" s="18" t="inlineStr">
-        <is>
-          <t>26.08.2020</t>
-        </is>
-      </c>
-      <c r="C5" s="19" t="n"/>
-      <c r="D5" s="19" t="n"/>
-      <c r="E5" s="19" t="n"/>
+      <c r="B5" s="19" t="inlineStr">
+        <is>
+          <t>23.08.2020</t>
+        </is>
+      </c>
+      <c r="C5" s="14" t="n"/>
+      <c r="D5" s="14" t="n"/>
+      <c r="E5" s="14" t="n"/>
       <c r="F5" s="17" t="n"/>
-      <c r="G5" s="19" t="n"/>
-      <c r="H5" s="19" t="n"/>
+      <c r="G5" s="14" t="n"/>
+      <c r="H5" s="14" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="17" t="n"/>
       <c r="B6" s="18" t="inlineStr">
         <is>
-          <t>27.08.2020</t>
-        </is>
-      </c>
-      <c r="C6" s="19" t="n"/>
-      <c r="D6" s="19" t="n"/>
-      <c r="E6" s="19" t="n"/>
+          <t>24.08.2020</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="n"/>
+      <c r="D6" s="11" t="n"/>
+      <c r="E6" s="11" t="n"/>
       <c r="F6" s="17" t="n"/>
-      <c r="G6" s="19" t="n"/>
-      <c r="H6" s="19" t="n"/>
+      <c r="G6" s="11" t="n"/>
+      <c r="H6" s="11" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="17" t="n"/>
-      <c r="B7" s="18" t="inlineStr">
-        <is>
-          <t>28.08.2020</t>
-        </is>
-      </c>
-      <c r="C7" s="19" t="n"/>
-      <c r="D7" s="19" t="n"/>
-      <c r="E7" s="19" t="n"/>
-      <c r="F7" s="17" t="n"/>
-      <c r="G7" s="19" t="n"/>
-      <c r="H7" s="19" t="n"/>
+      <c r="B7" s="19" t="inlineStr">
+        <is>
+          <t>25.08.2020</t>
+        </is>
+      </c>
+      <c r="C7" s="14" t="inlineStr">
+        <is>
+          <t>14:33</t>
+        </is>
+      </c>
+      <c r="D7" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14" t="inlineStr">
+        <is>
+          <t>Уборка</t>
+        </is>
+      </c>
+      <c r="F7" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G7" s="14" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="H7" s="14" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="n"/>
       <c r="B8" s="18" t="inlineStr">
         <is>
-          <t>29.08.2020</t>
-        </is>
-      </c>
-      <c r="C8" s="19" t="inlineStr">
-        <is>
-          <t>11:17
-19:11</t>
-        </is>
-      </c>
-      <c r="D8" s="19" t="inlineStr">
-        <is>
-          <t>40
-10</t>
-        </is>
-      </c>
-      <c r="E8" s="19" t="inlineStr">
-        <is>
-          <t>Уборка
-Зарядка</t>
-        </is>
-      </c>
-      <c r="F8" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
- </t>
-        </is>
-      </c>
-      <c r="G8" s="19" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="H8" s="19" t="n">
-        <v>11</v>
-      </c>
+          <t>26.08.2020</t>
+        </is>
+      </c>
+      <c r="C8" s="11" t="n"/>
+      <c r="D8" s="11" t="n"/>
+      <c r="E8" s="11" t="n"/>
+      <c r="F8" s="17" t="n"/>
+      <c r="G8" s="11" t="n"/>
+      <c r="H8" s="11" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="17" t="n"/>
-      <c r="B9" s="18" t="inlineStr">
-        <is>
-          <t>30.08.2020</t>
-        </is>
-      </c>
-      <c r="C9" s="19" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="D9" s="19" t="n">
-        <v>20</v>
-      </c>
-      <c r="E9" s="19" t="inlineStr">
-        <is>
-          <t>Ходьба</t>
-        </is>
-      </c>
-      <c r="F9" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G9" s="19" t="n"/>
-      <c r="H9" s="19" t="n"/>
+      <c r="B9" s="19" t="inlineStr">
+        <is>
+          <t>27.08.2020</t>
+        </is>
+      </c>
+      <c r="C9" s="14" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="E9" s="14" t="n"/>
+      <c r="F9" s="17" t="n"/>
+      <c r="G9" s="14" t="n"/>
+      <c r="H9" s="14" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="17" t="n"/>
       <c r="B10" s="18" t="inlineStr">
         <is>
+          <t>28.08.2020</t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="n"/>
+      <c r="D10" s="11" t="n"/>
+      <c r="E10" s="11" t="n"/>
+      <c r="F10" s="17" t="n"/>
+      <c r="G10" s="11" t="n"/>
+      <c r="H10" s="11" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="17" t="n"/>
+      <c r="B11" s="19" t="inlineStr">
+        <is>
+          <t>29.08.2020</t>
+        </is>
+      </c>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>11:17
+19:11</t>
+        </is>
+      </c>
+      <c r="D11" s="14" t="inlineStr">
+        <is>
+          <t>40
+10</t>
+        </is>
+      </c>
+      <c r="E11" s="14" t="inlineStr">
+        <is>
+          <t>Уборка
+Зарядка</t>
+        </is>
+      </c>
+      <c r="F11" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ </t>
+        </is>
+      </c>
+      <c r="G11" s="14" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H11" s="14" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="17" t="n"/>
+      <c r="B12" s="18" t="inlineStr">
+        <is>
+          <t>30.08.2020</t>
+        </is>
+      </c>
+      <c r="C12" s="11" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D12" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>Ходьба</t>
+        </is>
+      </c>
+      <c r="F12" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G12" s="11" t="n"/>
+      <c r="H12" s="11" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="17" t="n"/>
+      <c r="B13" s="19" t="inlineStr">
+        <is>
           <t>31.08.2020</t>
         </is>
       </c>
-      <c r="C10" s="19" t="n"/>
-      <c r="D10" s="19" t="n"/>
-      <c r="E10" s="19" t="n"/>
-      <c r="F10" s="17" t="n"/>
-      <c r="G10" s="19" t="inlineStr">
+      <c r="C13" s="14" t="n"/>
+      <c r="D13" s="14" t="n"/>
+      <c r="E13" s="14" t="n"/>
+      <c r="F13" s="17" t="n"/>
+      <c r="G13" s="14" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="H10" s="19" t="n">
+      <c r="H13" s="14" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="19" t="n"/>
-      <c r="B11" s="18" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="17" t="n"/>
+      <c r="B14" s="18" t="inlineStr">
         <is>
           <t>01.09.2020</t>
         </is>
       </c>
-      <c r="C11" s="19" t="inlineStr">
-        <is>
-          <t>14:13</t>
-        </is>
-      </c>
-      <c r="D11" s="19" t="n">
-        <v>23</v>
-      </c>
-      <c r="E11" s="19" t="inlineStr">
+      <c r="C14" s="11" t="inlineStr">
+        <is>
+          <t>14:13
+16:34</t>
+        </is>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>23
+23</t>
+        </is>
+      </c>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>Спорт
+Работа в огороде</t>
+        </is>
+      </c>
+      <c r="F14" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ </t>
+        </is>
+      </c>
+      <c r="G14" s="11" t="n"/>
+      <c r="H14" s="11" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="17" t="n"/>
+      <c r="B15" s="19" t="inlineStr">
+        <is>
+          <t>02.09.2020</t>
+        </is>
+      </c>
+      <c r="C15" s="14" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D15" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="E15" s="14" t="inlineStr">
         <is>
           <t>Спорт</t>
         </is>
       </c>
-      <c r="F11" s="19" t="inlineStr">
+      <c r="F15" s="17" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G11" s="19" t="n"/>
-      <c r="H11" s="19" t="n"/>
+      <c r="G15" s="14" t="n"/>
+      <c r="H15" s="14" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="17" t="n"/>
+      <c r="B16" s="18" t="inlineStr">
+        <is>
+          <t>03.09.2020</t>
+        </is>
+      </c>
+      <c r="C16" s="11" t="n"/>
+      <c r="D16" s="11" t="n"/>
+      <c r="E16" s="11" t="n"/>
+      <c r="F16" s="17" t="n"/>
+      <c r="G16" s="11" t="n"/>
+      <c r="H16" s="11" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="17" t="n"/>
+      <c r="B17" s="19" t="inlineStr">
+        <is>
+          <t>04.09.2020</t>
+        </is>
+      </c>
+      <c r="C17" s="14" t="n"/>
+      <c r="D17" s="14" t="n"/>
+      <c r="E17" s="14" t="n"/>
+      <c r="F17" s="17" t="n"/>
+      <c r="G17" s="14" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H17" s="14" t="n">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="CBEB"/>
